--- a/app/config/tables/beneficiaries/forms/screening_form/screening_form.xlsx
+++ b/app/config/tables/beneficiaries/forms/screening_form/screening_form.xlsx
@@ -1,16 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27022"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="16480" tabRatio="500"/>
+    <workbookView xWindow="9320" yWindow="4980" windowWidth="26000" windowHeight="18560" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
     <sheet name="settings" sheetId="3" r:id="rId2"/>
     <sheet name="model" sheetId="2" r:id="rId3"/>
     <sheet name="initial" sheetId="4" r:id="rId4"/>
+    <sheet name="choices" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="113">
   <si>
     <t>type</t>
   </si>
@@ -60,9 +61,6 @@
     <t>beneficiary_code</t>
   </si>
   <si>
-    <t>envelope_code</t>
-  </si>
-  <si>
     <t>date_distributed</t>
   </si>
   <si>
@@ -111,15 +109,9 @@
     <t>Last name</t>
   </si>
   <si>
-    <t>What is your address?</t>
-  </si>
-  <si>
     <t>Address</t>
   </si>
   <si>
-    <t>What city do you live in?</t>
-  </si>
-  <si>
     <t>City</t>
   </si>
   <si>
@@ -162,9 +154,6 @@
     <t>instance_name</t>
   </si>
   <si>
-    <t>What is your telephone number?</t>
-  </si>
-  <si>
     <t>datetime</t>
   </si>
   <si>
@@ -198,9 +187,6 @@
     <t>confirm_distribution</t>
   </si>
   <si>
-    <t>default</t>
-  </si>
-  <si>
     <t>now()</t>
   </si>
   <si>
@@ -232,6 +218,150 @@
   </si>
   <si>
     <t>Press "Next" to finish.</t>
+  </si>
+  <si>
+    <t>What is your current address?</t>
+  </si>
+  <si>
+    <t>What sub-village/sub-neighborhood do you live in?</t>
+  </si>
+  <si>
+    <t>district</t>
+  </si>
+  <si>
+    <t>What district do you live in?</t>
+  </si>
+  <si>
+    <t>What city/township do you live in?</t>
+  </si>
+  <si>
+    <t>village</t>
+  </si>
+  <si>
+    <t>What village/neighborhood do you live in?</t>
+  </si>
+  <si>
+    <t>distribution_site</t>
+  </si>
+  <si>
+    <t>What is the name of the distribution site?</t>
+  </si>
+  <si>
+    <t>mobile_provider</t>
+  </si>
+  <si>
+    <t>What is your mobile phone service provider?</t>
+  </si>
+  <si>
+    <t>What is your mobile phone number?</t>
+  </si>
+  <si>
+    <t>hh_size</t>
+  </si>
+  <si>
+    <t>How many people are in your household?</t>
+  </si>
+  <si>
+    <t>Including household representative</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>birth_date</t>
+  </si>
+  <si>
+    <t>What is date of birth?</t>
+  </si>
+  <si>
+    <t>select_one</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>What is your gender?</t>
+  </si>
+  <si>
+    <t>choice_list_name</t>
+  </si>
+  <si>
+    <t>data_value</t>
+  </si>
+  <si>
+    <t>values_list</t>
+  </si>
+  <si>
+    <t>genders</t>
+  </si>
+  <si>
+    <t>a0</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>a1</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>sites</t>
+  </si>
+  <si>
+    <t>districts</t>
+  </si>
+  <si>
+    <t>cities</t>
+  </si>
+  <si>
+    <t>villages</t>
+  </si>
+  <si>
+    <t>sub-villages</t>
+  </si>
+  <si>
+    <t>a2</t>
+  </si>
+  <si>
+    <t>a3</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>flag</t>
+  </si>
+  <si>
+    <t>distributions</t>
+  </si>
+  <si>
+    <t>item_code</t>
+  </si>
+  <si>
+    <t>distributions_received</t>
+  </si>
+  <si>
+    <t>remaining_distributions</t>
+  </si>
+  <si>
+    <t>scanned_item_code</t>
+  </si>
+  <si>
+    <t>sub_village</t>
   </si>
 </sst>
 </file>
@@ -406,7 +536,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -418,8 +548,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -443,18 +581,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="19">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -784,10 +934,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23" x14ac:dyDescent="0"/>
@@ -808,33 +958,33 @@
         <v>1</v>
       </c>
       <c r="C1" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="13" t="s">
-        <v>26</v>
-      </c>
       <c r="E1" s="13" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>58</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -845,10 +995,10 @@
         <v>3</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -859,100 +1009,209 @@
         <v>4</v>
       </c>
       <c r="C4" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="14" t="s">
         <v>27</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="14" t="s">
         <v>41</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="4" t="s">
-        <v>2</v>
+        <v>80</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>5</v>
+        <v>81</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>30</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="4" t="s">
-        <v>2</v>
+        <v>83</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>6</v>
+        <v>84</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>32</v>
+        <v>85</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="4" t="s">
-        <v>2</v>
+        <v>83</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>33</v>
+        <v>73</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="4" t="s">
-        <v>15</v>
+        <v>83</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" s="19"/>
+        <v>68</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="4" t="s">
-        <v>2</v>
+        <v>83</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>34</v>
+        <v>29</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="4" t="s">
-        <v>68</v>
+        <v>83</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>70</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>69</v>
+        <v>71</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" s="19"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -984,26 +1243,26 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="C1" s="10" t="s">
         <v>17</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="7">
         <v>20150215</v>
@@ -1011,26 +1270,26 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1045,10 +1304,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="26" defaultRowHeight="23" x14ac:dyDescent="0"/>
@@ -1087,7 +1346,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1140,15 +1399,15 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="17" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" s="18" t="s">
         <v>11</v>
@@ -1156,42 +1415,42 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>12</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="17" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="17" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="17" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="17" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1199,7 +1458,7 @@
         <v>2</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1207,7 +1466,7 @@
         <v>2</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1215,7 +1474,7 @@
         <v>2</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1223,7 +1482,7 @@
         <v>2</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1231,7 +1490,7 @@
         <v>2</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1239,7 +1498,79 @@
         <v>2</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>55</v>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B30" s="18" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B32" s="22" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1271,29 +1602,29 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="20" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B1" s="20" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D1" s="20" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="20" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="30">
       <c r="A3" s="20" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1305,4 +1636,178 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="30">
+      <c r="A1" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>95</v>
+      </c>
+      <c r="B9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>95</v>
+      </c>
+      <c r="B10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>96</v>
+      </c>
+      <c r="B12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C12" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>97</v>
+      </c>
+      <c r="B13" t="s">
+        <v>90</v>
+      </c>
+      <c r="C13" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>98</v>
+      </c>
+      <c r="B14" t="s">
+        <v>90</v>
+      </c>
+      <c r="C14" t="s">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>